--- a/lab08/references/T1.xlsx
+++ b/lab08/references/T1.xlsx
@@ -27,7 +27,7 @@
     <t xml:space="preserve">l.p</t>
   </si>
   <si>
-    <t xml:space="preserve">I_a [mA]</t>
+    <t xml:space="preserve">I_a [µA]</t>
   </si>
   <si>
     <t xml:space="preserve">\Delta I_a [mA]</t>
@@ -300,7 +300,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -435,43 +435,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.0135</c:v>
+                  <c:v>0.135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.011</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0105</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.009</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.008</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.007</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0065</c:v>
+                  <c:v>0.065</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0055</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.005</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.004</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0035</c:v>
+                  <c:v>0.035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.003</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v/>
@@ -520,11 +520,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79565994"/>
-        <c:axId val="80333607"/>
+        <c:axId val="71173421"/>
+        <c:axId val="46965186"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79565994"/>
+        <c:axId val="71173421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +598,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80333607"/>
+        <c:crossAx val="46965186"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -607,7 +607,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80333607"/>
+        <c:axId val="46965186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +691,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79565994"/>
+        <c:crossAx val="71173421"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -718,437 +718,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$I$2:$I$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.109544511501033</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.134164078649987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.144913767461894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.173205080756888</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.194935886896179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.212132034355964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.234520787991171</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.254950975679639</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.273861278752583</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.298328677803526</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.311448230047949</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.327108544675923</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.0135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.009</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0055</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.0035</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="69511136"/>
-        <c:axId val="69347126"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="69511136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>sqrt(Ua)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69347126"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="69347126"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ia[mA]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69511136"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.106319144946559"/>
-          <c:y val="0.0576175130570064"/>
-          <c:w val="0.867554222138884"/>
-          <c:h val="0.808200911212357"/>
-        </c:manualLayout>
-      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1173,6 +748,30 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1194,7 +793,109 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:yVal>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0176331566136861</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0197388927170629</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0203090076479504</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0209474924373951</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0224779524148558</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0244575640531662</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0270868122635056</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0287415299857819</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0330469851051302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0358998250610602</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0438896051407931</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0496828871559356</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0574770585036287</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0176331566136861</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0197388927170629</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0203090076479504</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0209474924373951</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0224779524148558</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0244575640531662</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0270868122635056</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0287415299857819</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0330469851051302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0358998250610602</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0438896051407931</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0496828871559356</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0574770585036287</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$F$2:$F$14</c:f>
               <c:numCache>
@@ -1241,14 +942,62 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59801508"/>
-        <c:axId val="50555076"/>
+        <c:axId val="27191368"/>
+        <c:axId val="39720053"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59801508"/>
+        <c:axId val="27191368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,14 +1043,14 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>U_a</a:t>
+                  <a:t>X axis</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1330,12 +1079,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50555076"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="39720053"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50555076"/>
+        <c:axId val="39720053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,14 +1130,14 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>ln(I_a/I_a_0)</a:t>
+                  <a:t>Y axis</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1417,8 +1166,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59801508"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="27191368"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1444,844 +1193,29 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Arkusz1!$G$2:$G$28</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="27"/>
-                  <c:pt idx="0">
-                    <c:v>0.176331566136861</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.197388927170629</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.203090076479504</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.209474924373951</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.224779524148558</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.244575640531662</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.270868122635056</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.287415299857819</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.330469851051302</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.358998250610602</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.438896051407931</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.496828871559356</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.574770585036287</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Arkusz1!$G$2:$G$28</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="27"/>
-                  <c:pt idx="0">
-                    <c:v>0.176331566136861</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.197388927170629</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.203090076479504</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>0.209474924373951</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0.224779524148558</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>0.244575640531662</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0.270868122635056</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>0.287415299857819</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>0.330469851051302</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>0.358998250610602</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>0.438896051407931</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>0.496828871559356</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>0.574770585036287</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v/>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>0.15</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:errBars>
-            <c:errDir val="x"/>
-            <c:errBarType val="plus"/>
-            <c:errValType val="fixedVal"/>
-            <c:noEndCap val="0"/>
-            <c:val val="0"/>
-          </c:errBars>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.038</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.055</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.065</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.075</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.089</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.097</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.107</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$F$2:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.204794412646013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.251314428280906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.300104592450338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.405465108108164</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.523248143764548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.65677953638907</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.730887508542792</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.897941593205958</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.993251773010283</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.21639532432449</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.34992671694902</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.50407739677627</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln w="28440">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.038</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.045</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.055</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.065</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.075</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.089</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.097</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.107</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Arkusz1!$K$2:$K$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.165707774818225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.248561662227338</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.289988605931894</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.414269437045563</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.52474128692438</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.621404155568345</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.759493967916866</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.897583780265387</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.03567359261391</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.22899932990184</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.33947117978065</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.47756099212918</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="44798026"/>
-        <c:axId val="59621100"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="44798026"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Ua</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59621100"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="59621100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="878787"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>ln(Ia/Ia0)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="878787"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44798026"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>357480</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1665360</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>295200</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>479880</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="31346640" y="8670960"/>
-        <a:ext cx="10605600" cy="5873040"/>
+        <a:off x="14289120" y="12453840"/>
+        <a:ext cx="6854760" cy="4338720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2293,89 +1227,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>737640</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 8"/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="737640" y="9904680"/>
-        <a:ext cx="6855120" cy="4339080"/>
+        <a:off x="798120" y="5308920"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>336600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>420480</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="31325760" y="1244160"/>
-        <a:ext cx="9989640" cy="6413400"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>699480</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="699480" y="6183720"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2391,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0135</v>
+        <v>0.135</v>
       </c>
       <c r="C2" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2479,7 +1353,7 @@
       </c>
       <c r="G2" s="1" t="n">
         <f aca="false">SQRT((C2/B2)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.176331566136861</v>
+        <v>0.0176331566136861</v>
       </c>
       <c r="I2" s="0" t="n">
         <f aca="false">SQRT(ABS(D2))</f>
@@ -2504,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.011</v>
+        <v>0.11</v>
       </c>
       <c r="C3" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2523,7 +1397,7 @@
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">SQRT((C3/B3)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.197388927170629</v>
+        <v>0.0197388927170629</v>
       </c>
       <c r="I3" s="0" t="n">
         <f aca="false">SQRT(ABS(D3))</f>
@@ -2546,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.0105</v>
+        <v>0.105</v>
       </c>
       <c r="C4" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2565,7 +1439,7 @@
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">SQRT((C4/B4)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.203090076479504</v>
+        <v>0.0203090076479504</v>
       </c>
       <c r="I4" s="0" t="n">
         <f aca="false">SQRT(ABS(D4))</f>
@@ -2581,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2600,7 +1474,7 @@
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">SQRT((C5/B5)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.209474924373951</v>
+        <v>0.0209474924373951</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">SQRT(ABS(D5))</f>
@@ -2616,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.009</v>
+        <v>0.09</v>
       </c>
       <c r="C6" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2635,7 +1509,7 @@
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">SQRT((C6/B6)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.224779524148558</v>
+        <v>0.0224779524148558</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">SQRT(ABS(D6))</f>
@@ -2643,7 +1517,7 @@
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">D6*$Q$7</f>
-        <v>-0.414269437045563</v>
+        <v>-0.414269437045564</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>14</v>
@@ -2658,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.008</v>
+        <v>0.08</v>
       </c>
       <c r="C7" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2677,7 +1551,7 @@
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">SQRT((C7/B7)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.244575640531662</v>
+        <v>0.0244575640531662</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">SQRT(ABS(D7))</f>
@@ -2712,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.007</v>
+        <v>0.07</v>
       </c>
       <c r="C8" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2731,7 +1605,7 @@
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">SQRT((C8/B8)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.270868122635056</v>
+        <v>0.0270868122635056</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">SQRT(ABS(D8))</f>
@@ -2748,7 +1622,7 @@
         <v>1.60217657E-019</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.107911416970618</v>
+        <v>0.107911416970619</v>
       </c>
       <c r="R8" s="0" t="e">
         <v>#N/A</v>
@@ -2765,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.0065</v>
+        <v>0.065</v>
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2784,7 +1658,7 @@
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">SQRT((C9/B9)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.287415299857819</v>
+        <v>0.0287415299857819</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">SQRT(ABS(D9))</f>
@@ -2805,7 +1679,7 @@
         <v>0.999267724308109</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>0.0233777078103576</v>
+        <v>0.0233777078103578</v>
       </c>
       <c r="S9" s="0" t="e">
         <v>#N/A</v>
@@ -2819,7 +1693,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0055</v>
+        <v>0.055</v>
       </c>
       <c r="C10" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2838,7 +1712,7 @@
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">SQRT((C10/B10)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.330469851051302</v>
+        <v>0.0330469851051302</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">SQRT(ABS(D10))</f>
@@ -2856,7 +1730,7 @@
         <v>6.56706389020512</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>16375.270713585</v>
+        <v>16375.2707135848</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>12</v>
@@ -2873,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2892,7 +1766,7 @@
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">SQRT((C11/B11)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.358998250610602</v>
+        <v>0.0358998250610602</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">SQRT(ABS(D11))</f>
@@ -2903,10 +1777,10 @@
         <v>-1.03567359261391</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>8.94936746752476</v>
+        <v>8.94936746752478</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0.00655820666959747</v>
+        <v>0.00655820666959755</v>
       </c>
       <c r="S11" s="0" t="e">
         <v>#N/A</v>
@@ -2920,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.004</v>
+        <v>0.04</v>
       </c>
       <c r="C12" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2939,7 +1813,7 @@
       </c>
       <c r="G12" s="1" t="n">
         <f aca="false">SQRT((C12/B12)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.438896051407931</v>
+        <v>0.0438896051407931</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">SQRT(ABS(D12))</f>
@@ -2967,7 +1841,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.0035</v>
+        <v>0.035</v>
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -2986,7 +1860,7 @@
       </c>
       <c r="G13" s="1" t="n">
         <f aca="false">SQRT((C13/B13)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.496828871559356</v>
+        <v>0.0496828871559356</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">SQRT(ABS(D13))</f>
@@ -2994,7 +1868,7 @@
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">D13*$Q$7</f>
-        <v>-1.33947117978065</v>
+        <v>-1.33947117978066</v>
       </c>
       <c r="Q13" s="0" t="e">
         <v>#N/A</v>
@@ -3014,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.003</v>
+        <v>0.03</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SQRT((($Q$3)^2 + ($Q$2/2)^2)/3)</f>
@@ -3033,7 +1907,7 @@
       </c>
       <c r="G14" s="1" t="n">
         <f aca="false">SQRT((C14/B14)^2+(-$C$2/$B$2)^2)</f>
-        <v>0.574770585036287</v>
+        <v>0.0574770585036287</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">SQRT(ABS(D14))</f>
@@ -3373,7 +2247,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3399,7 +2273,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/lab08/references/T1.xlsx
+++ b/lab08/references/T1.xlsx
@@ -111,7 +111,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,6 +144,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -300,7 +312,911 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000598134878880452</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000608527183725866</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000613723336148572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000629311793416692</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000655292555530225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000689933571681603</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000707254079757292</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000731502791063256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000745359197523807</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000762679705599496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000598134878880452</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000608527183725866</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000613723336148572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000629311793416692</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000655292555530225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000689933571681603</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000707254079757292</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000731502791063256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000745359197523807</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000762679705599496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="59134735"/>
+        <c:axId val="46487635"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="59134735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>U_a [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46487635"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46487635"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59134735"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.109544511501033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.134164078649987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144913767461894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.173205080756888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.194935886896179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.212132034355964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.234520787991171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.254950975679639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.273861278752583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.298328677803526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.311448230047949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.327108544675923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="76238746"/>
+        <c:axId val="24054381"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76238746"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24054381"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24054381"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>sqrt(U_a) [sqrt(V)]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76238746"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -520,11 +1436,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71173421"/>
-        <c:axId val="46965186"/>
+        <c:axId val="64526407"/>
+        <c:axId val="94725879"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71173421"/>
+        <c:axId val="64526407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +1514,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46965186"/>
+        <c:crossAx val="94725879"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -607,7 +1523,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46965186"/>
+        <c:axId val="94725879"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -691,7 +1607,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71173421"/>
+        <c:crossAx val="64526407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -718,7 +1634,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -749,15 +1665,8 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="10"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="11"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -766,12 +1675,14 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
             </c:dLbl>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -897,6 +1808,54 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>Arkusz1!$F$2:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -942,8 +1901,457 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="44072123"/>
+        <c:axId val="8102220"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44072123"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>U_a</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8102220"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8102220"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>ln(I_a/I_a0)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44072123"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$C$2:$C$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.00168325082306035</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000598134878880452</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000608527183725866</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000613723336148572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000629311793416692</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000655292555530225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000689933571681603</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000707254079757292</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000731502791063256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000745359197523807</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000762679705599496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000598134878880452</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000608527183725866</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000613723336148572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000629311793416692</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000655292555530225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000689933571681603</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000707254079757292</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000731502791063256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000745359197523807</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000762679705599496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
             <c:numRef>
               <c:f>Arkusz1!$D$2:$D$14</c:f>
               <c:numCache>
@@ -990,14 +2398,389 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27191368"/>
-        <c:axId val="39720053"/>
+        <c:axId val="36937697"/>
+        <c:axId val="96902225"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27191368"/>
+        <c:axId val="36937697"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Ua [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96902225"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96902225"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36937697"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.109544511501033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.134164078649987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144913767461894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.173205080756888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.194935886896179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.212132034355964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.234520787991171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.254950975679639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.273861278752583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.298328677803526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.311448230047949</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.327108544675923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="34161642"/>
+        <c:axId val="34476041"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="34161642"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1043,14 +2826,14 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>X axis</a:t>
+                  <a:t>sqrt(U_a) [sqrt(V)]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,12 +2862,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39720053"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="34476041"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="39720053"/>
+        <c:axId val="34476041"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +2913,481 @@
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Y axis</a:t>
+                  <a:t>I_a [µA]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34161642"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0176331566136861</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0197388927170629</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0203090076479504</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0209474924373951</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0224779524148558</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0244575640531662</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0270868122635056</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0287415299857819</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0330469851051302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0358998250610602</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0438896051407931</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0496828871559356</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0574770585036287</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$G$2:$G$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.0176331566136861</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0197388927170629</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0203090076479504</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0209474924373951</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0224779524148558</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0244575640531662</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0270868122635056</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0287415299857819</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.0330469851051302</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.0358998250610602</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.0438896051407931</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.0496828871559356</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.0574770585036287</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000598134878880452</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000608527183725866</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000613723336148572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000629311793416692</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000655292555530225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000689933571681603</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000707254079757292</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000731502791063256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000745359197523807</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000762679705599496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Arkusz1!$E$2:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>0.000577350269189626</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.000598134878880452</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.000608527183725866</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.000613723336148572</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000629311793416692</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000643168199877243</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.000655292555530225</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.000672613063605914</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.000689933571681603</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.000707254079757292</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.000731502791063256</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.000745359197523807</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.000762679705599496</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.038</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.089</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.204794412646013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.251314428280906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.300104592450338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.405465108108164</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.523248143764548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.65677953638907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.730887508542792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.897941593205958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.993251773010283</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.21639532432449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.34992671694902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.50407739677627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="74774443"/>
+        <c:axId val="75166145"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74774443"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>U_a [V]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1166,8 +3423,95 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27191368"/>
+        <c:crossAx val="75166145"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75166145"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>ln(I_a/I_a0)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74774443"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1204,9 +3548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>479880</xdr:colOff>
+      <xdr:colOff>479160</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1215,7 +3559,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14289120" y="12453840"/>
-        <a:ext cx="6854760" cy="4338720"/>
+        <a:ext cx="6854040" cy="4338000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1227,16 +3571,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399240</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1446480</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1244,12 +3588,162 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="798120" y="5308920"/>
+        <a:off x="8310960" y="15194520"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190160</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>138240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>484200</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7348680" y="18746280"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1229760</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>128880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523800</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7388280" y="22234320"/>
+        <a:ext cx="5759280" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="798120" y="5861880"/>
         <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>94680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="798120" y="9732600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>126360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399240</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="798120" y="13385160"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1265,8 +3759,8 @@
   </sheetPr>
   <dimension ref="A1:U114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1622,7 +4116,7 @@
         <v>1.60217657E-019</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>0.107911416970619</v>
+        <v>0.107911416970618</v>
       </c>
       <c r="R8" s="0" t="e">
         <v>#N/A</v>
@@ -1679,7 +4173,7 @@
         <v>0.999267724308109</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>0.0233777078103578</v>
+        <v>0.0233777078103576</v>
       </c>
       <c r="S9" s="0" t="e">
         <v>#N/A</v>
@@ -1730,7 +4224,7 @@
         <v>6.56706389020512</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>16375.2707135848</v>
+        <v>16375.270713585</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>12</v>
@@ -1777,10 +4271,10 @@
         <v>-1.03567359261391</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>8.94936746752478</v>
+        <v>8.94936746752476</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0.00655820666959755</v>
+        <v>0.00655820666959747</v>
       </c>
       <c r="S11" s="0" t="e">
         <v>#N/A</v>
@@ -2247,8 +4741,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2273,8 +4767,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
